--- a/biology/Microbiologie/Excavata/Excavata.xlsx
+++ b/biology/Microbiologie/Excavata/Excavata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Excavata (Excavés, ce qui signifie creusés) ou Excavobionta sont un infra-règne d'eucaryotes unicellulaires hétérotrophes et généralement flagellés. Le type ancestral se caractérise par la présence d'une zone creusée, le cytostome, permettant l'ingestion de fines particules alimentaires. De nombreux excavates sont anaérobies ou microaérophile et contiennent des organites particuliers et spécialisés : les mitosomes et les hydrogénosomes, ex. : Diplomonade
 De nombreux Excavobiontes sont des parasites de l'homme ou d'autres animaux. ex. : Trypanosomes, Giardia
 Certains possèdent des plastes (endosymbionte secondaire) et sont photosynthétiques : Euglénoides
-Les excavés étaient inclus autrefois dans le règne aujourd'hui obsolète des Protista[1]. 
-Ils sont classifiés selon leurs structures flagellaires[2] et  ils sont considérés comme la lignèe la plus basale des flagellés[3].
+Les excavés étaient inclus autrefois dans le règne aujourd'hui obsolète des Protista. 
+Ils sont classifiés selon leurs structures flagellaires et  ils sont considérés comme la lignèe la plus basale des flagellés.
 Les excavés du sous-règne des Discoba (Jakobea, Tsukubea, Euglenozoa et Percolozoa) semblent être des eucaryotes de type basal, tandis que les Neolouka (genre Malawimonas) et les Metamonada semblent maintenant être des clades frères des Podiata. 
-Les Discoba pourraient être hautement paraphylétiques[4].
+Les Discoba pourraient être hautement paraphylétiques.
 Les Euglenobionta et les Metamonada forment deux groupes monophylétiques.
 </t>
         </is>
@@ -518,9 +530,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2003 Alastair Simpson écrivait « Pour l'instant, il n'existe pas de système de taxonomie phylogénétique de haut niveau pour décrire les relations fortement étayées entre les « excavata »[2] ». La classification ci-dessous, étant sujette à modification, n'est dont donnée qu'à titre indicatif :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2003 Alastair Simpson écrivait « Pour l'instant, il n'existe pas de système de taxonomie phylogénétique de haut niveau pour décrire les relations fortement étayées entre les « excavata » ». La classification ci-dessous, étant sujette à modification, n'est dont donnée qu'à titre indicatif :
 Sous-règne 1
 Embranchement des NeoloukaNeolouka
 Classe des Malawimonadidea (genre Malawimonas)
